--- a/res/excel/TabelaPrzestawna.xlsx
+++ b/res/excel/TabelaPrzestawna.xlsx
@@ -1,25 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr codeName="Ten_skoroszyt" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kamil\OneDrive\Pulpit\Rozklad Materialu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kowalskikrz\LO\res\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{099127B9-0AC9-482D-AB87-E0F04286C4A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB1C9CA-0D40-47B9-A950-CAA874539263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="Arkusz2" sheetId="2" r:id="rId1"/>
+    <sheet name="Arkusz1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Arkusz1!$A$1:$D$306</definedName>
-    <definedName name="arkusz" localSheetId="0">Arkusz1!$A$1:$D$306</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Arkusz1!$A$1:$D$306</definedName>
+    <definedName name="arkusz" localSheetId="1">Arkusz1!$A$1:$D$306</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
+  <pivotCaches>
+    <pivotCache cacheId="4" r:id="rId3"/>
+  </pivotCaches>
 </workbook>
 </file>
 
@@ -39,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="29">
   <si>
     <t>Data</t>
   </si>
@@ -112,6 +116,21 @@
   <si>
     <t>Liczba połączeń</t>
   </si>
+  <si>
+    <t>Etykiety wierszy</t>
+  </si>
+  <si>
+    <t>(puste)</t>
+  </si>
+  <si>
+    <t>Suma końcowa</t>
+  </si>
+  <si>
+    <t>Etykiety kolumn</t>
+  </si>
+  <si>
+    <t>Liczba z Liczba połączeń</t>
+  </si>
 </sst>
 </file>
 
@@ -162,10 +181,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -181,6 +208,2285 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Krzysztof Kowalski" refreshedDate="45076.465406597221" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="306" xr:uid="{6CED4266-63CB-4EB3-81BA-1A06682587C8}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:D1048576" sheet="Arkusz1"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="Data" numFmtId="0">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2012-08-01T00:00:00" maxDate="2012-08-28T00:00:00" count="19">
+        <d v="2012-08-01T00:00:00"/>
+        <d v="2012-08-02T00:00:00"/>
+        <d v="2012-08-03T00:00:00"/>
+        <d v="2012-08-06T00:00:00"/>
+        <d v="2012-08-07T00:00:00"/>
+        <d v="2012-08-08T00:00:00"/>
+        <d v="2012-08-09T00:00:00"/>
+        <d v="2012-08-10T00:00:00"/>
+        <d v="2012-08-13T00:00:00"/>
+        <d v="2012-08-14T00:00:00"/>
+        <d v="2012-08-16T00:00:00"/>
+        <d v="2012-08-17T00:00:00"/>
+        <d v="2012-08-20T00:00:00"/>
+        <d v="2012-08-21T00:00:00"/>
+        <d v="2012-08-22T00:00:00"/>
+        <d v="2012-08-23T00:00:00"/>
+        <d v="2012-08-24T00:00:00"/>
+        <d v="2012-08-27T00:00:00"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Kampania" numFmtId="0">
+      <sharedItems containsBlank="1" count="14">
+        <s v="00086 Dzieci"/>
+        <s v="99999 Wychod"/>
+        <s v="00077 Kontyn"/>
+        <s v="00078 KONS. "/>
+        <s v="00072 Kontyn"/>
+        <s v="00085 Baza_F"/>
+        <s v="00084 Baza_F"/>
+        <s v="00082 Baza_F"/>
+        <s v="00087 Kontyn"/>
+        <s v="00088 Kontyn"/>
+        <s v="00083 Baza_F"/>
+        <s v="00089 Kons. "/>
+        <s v="00092 Dzieci"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Konsultant" numFmtId="0">
+      <sharedItems containsBlank="1" count="8">
+        <s v="Piotr Truskawka"/>
+        <s v="Jacek Malina"/>
+        <s v="Ewa Gruszka"/>
+        <s v="Lena Mango"/>
+        <s v="Anna Ogórek"/>
+        <s v="Bartosz Pomidor"/>
+        <s v="Joanna Kowalska"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Liczba połączeń" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="120"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="306">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="96"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="100"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="59"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="31"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="106"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="13"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="53"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="84"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="16"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="27"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="32"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="70"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="5"/>
+    <n v="28"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="91"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="16"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="21"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="3"/>
+    <n v="17"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="118"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="65"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="39"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="5"/>
+    <n v="38"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="19"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="33"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="106"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="104"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="40"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="110"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="3"/>
+    <n v="108"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="24"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="109"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="57"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="3"/>
+    <n v="106"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="40"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="59"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="75"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="48"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="54"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="80"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="47"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="43"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="36"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="3"/>
+    <n v="63"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="30"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="109"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="66"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="51"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="21"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="83"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="79"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="82"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="74"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="71"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="118"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="92"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="22"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="39"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="4"/>
+    <x v="3"/>
+    <n v="72"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="5"/>
+    <x v="4"/>
+    <n v="33"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="33"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="7"/>
+    <x v="6"/>
+    <n v="71"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="8"/>
+    <x v="6"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="8"/>
+    <x v="1"/>
+    <n v="59"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="104"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="77"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="9"/>
+    <x v="2"/>
+    <n v="97"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="63"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="29"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="8"/>
+    <x v="4"/>
+    <n v="25"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="35"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="87"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="90"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="65"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="106"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="8"/>
+    <x v="3"/>
+    <n v="70"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="67"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="10"/>
+    <x v="6"/>
+    <n v="72"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="100"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="54"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="8"/>
+    <x v="4"/>
+    <n v="94"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="9"/>
+    <x v="0"/>
+    <n v="65"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="116"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="8"/>
+    <x v="3"/>
+    <n v="56"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="73"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="8"/>
+    <x v="1"/>
+    <n v="95"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="99"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="108"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="70"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="118"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="16"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="29"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="8"/>
+    <x v="6"/>
+    <n v="52"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="112"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="104"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="77"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="47"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="9"/>
+    <x v="0"/>
+    <n v="34"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="77"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="110"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="2"/>
+    <n v="108"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="6"/>
+    <n v="53"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="11"/>
+    <x v="4"/>
+    <n v="42"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="5"/>
+    <n v="67"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="11"/>
+    <x v="0"/>
+    <n v="81"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="114"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="118"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="1"/>
+    <n v="120"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="24"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="11"/>
+    <x v="4"/>
+    <n v="42"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="12"/>
+    <x v="4"/>
+    <n v="55"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="61"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="12"/>
+    <x v="1"/>
+    <n v="98"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="112"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="12"/>
+    <x v="3"/>
+    <n v="40"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="77"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="8"/>
+    <x v="2"/>
+    <n v="67"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="12"/>
+    <x v="2"/>
+    <n v="103"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="12"/>
+    <x v="0"/>
+    <n v="26"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="12"/>
+    <x v="5"/>
+    <n v="73"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="23"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="6"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="36"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="12"/>
+    <x v="6"/>
+    <n v="35"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="2"/>
+    <n v="52"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="6"/>
+    <n v="89"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="96"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="75"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="1"/>
+    <n v="96"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="12"/>
+    <x v="4"/>
+    <n v="90"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="12"/>
+    <x v="0"/>
+    <n v="48"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="35"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="47"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="12"/>
+    <x v="2"/>
+    <n v="65"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <n v="40"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="3"/>
+    <n v="79"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="12"/>
+    <x v="1"/>
+    <n v="114"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="81"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="12"/>
+    <x v="3"/>
+    <n v="52"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="0"/>
+    <n v="103"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="8"/>
+    <x v="5"/>
+    <n v="115"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="4"/>
+    <n v="83"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="8"/>
+    <x v="2"/>
+    <n v="116"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="6"/>
+    <n v="61"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="83"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="8"/>
+    <x v="1"/>
+    <n v="114"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="1"/>
+    <n v="103"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="12"/>
+    <x v="1"/>
+    <n v="35"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="49"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="8"/>
+    <x v="6"/>
+    <n v="81"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="12"/>
+    <x v="3"/>
+    <n v="99"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="61"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="3"/>
+    <n v="118"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="35"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="12"/>
+    <x v="5"/>
+    <n v="27"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="80"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="12"/>
+    <x v="0"/>
+    <n v="104"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="71"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="8"/>
+    <x v="3"/>
+    <n v="48"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="12"/>
+    <x v="4"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="8"/>
+    <x v="1"/>
+    <n v="112"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="39"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="8"/>
+    <x v="4"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="54"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="9"/>
+    <x v="3"/>
+    <n v="109"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="99"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="101"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="68"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="9"/>
+    <x v="0"/>
+    <n v="78"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="8"/>
+    <x v="5"/>
+    <n v="46"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="33"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="11"/>
+    <x v="0"/>
+    <n v="80"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="31"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="8"/>
+    <x v="3"/>
+    <n v="44"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="9"/>
+    <x v="4"/>
+    <n v="103"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="93"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="8"/>
+    <x v="2"/>
+    <n v="66"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="64"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="55"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="1"/>
+    <n v="52"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="5"/>
+    <n v="26"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="38"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="9"/>
+    <x v="3"/>
+    <n v="22"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="3"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="2"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="107"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="101"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="17"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="4"/>
+    <n v="114"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="9"/>
+    <x v="0"/>
+    <n v="112"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="3"/>
+    <n v="118"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="9"/>
+    <x v="3"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="59"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="5"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="94"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="25"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="64"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="72"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="108"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="71"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="47"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="8"/>
+    <x v="6"/>
+    <n v="30"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="42"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="9"/>
+    <x v="3"/>
+    <n v="16"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="8"/>
+    <x v="5"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="37"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="8"/>
+    <x v="4"/>
+    <n v="21"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="8"/>
+    <x v="2"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="69"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="8"/>
+    <x v="3"/>
+    <n v="109"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="90"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="43"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="9"/>
+    <x v="0"/>
+    <n v="69"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="9"/>
+    <x v="1"/>
+    <n v="29"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="8"/>
+    <x v="1"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="9"/>
+    <x v="0"/>
+    <n v="83"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="79"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="47"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="8"/>
+    <x v="1"/>
+    <n v="53"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="8"/>
+    <x v="6"/>
+    <n v="83"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="11"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="11"/>
+    <x v="1"/>
+    <n v="74"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="92"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="105"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="8"/>
+    <x v="3"/>
+    <n v="119"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="8"/>
+    <x v="4"/>
+    <n v="64"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="8"/>
+    <x v="5"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="8"/>
+    <x v="2"/>
+    <n v="32"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="106"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="67"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="52"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="8"/>
+    <x v="3"/>
+    <n v="100"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="120"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="115"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="8"/>
+    <x v="6"/>
+    <n v="43"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="61"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="8"/>
+    <x v="1"/>
+    <n v="13"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="44"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="95"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="8"/>
+    <x v="5"/>
+    <n v="116"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="9"/>
+    <x v="0"/>
+    <n v="64"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="8"/>
+    <x v="4"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="71"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="113"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="8"/>
+    <x v="2"/>
+    <n v="98"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="9"/>
+    <x v="6"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="44"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="9"/>
+    <x v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="8"/>
+    <x v="6"/>
+    <n v="66"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="54"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="9"/>
+    <x v="1"/>
+    <n v="19"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="119"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="51"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="85"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="8"/>
+    <x v="4"/>
+    <n v="83"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="8"/>
+    <x v="1"/>
+    <n v="95"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="99"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="27"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="8"/>
+    <x v="3"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="8"/>
+    <x v="2"/>
+    <n v="41"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="39"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="86"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="8"/>
+    <x v="4"/>
+    <n v="48"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="9"/>
+    <x v="0"/>
+    <n v="51"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="70"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="8"/>
+    <x v="5"/>
+    <n v="11"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="48"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="8"/>
+    <x v="6"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="9"/>
+    <x v="1"/>
+    <n v="102"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="67"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="8"/>
+    <x v="1"/>
+    <n v="114"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="37"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="13"/>
+    <x v="7"/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9DA5CAA4-352F-4812-A816-7F23D356FBF8}" name="Tabela przestawna1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:U77" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="20">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="15">
+        <item x="4"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="7"/>
+        <item x="10"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="1"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="9">
+        <item x="4"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="1"/>
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="73">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="20">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Liczba z Liczba połączeń" fld="3" subtotal="countNums" baseField="1" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -507,24 +2813,2900 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A61870E-9027-43DF-BBF9-65236EEB62E5}">
+  <dimension ref="A3:U77"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W7" sqref="W7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="19" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1">
+        <v>41122</v>
+      </c>
+      <c r="C4" s="1">
+        <v>41123</v>
+      </c>
+      <c r="D4" s="1">
+        <v>41124</v>
+      </c>
+      <c r="E4" s="1">
+        <v>41127</v>
+      </c>
+      <c r="F4" s="1">
+        <v>41128</v>
+      </c>
+      <c r="G4" s="1">
+        <v>41129</v>
+      </c>
+      <c r="H4" s="1">
+        <v>41130</v>
+      </c>
+      <c r="I4" s="1">
+        <v>41131</v>
+      </c>
+      <c r="J4" s="1">
+        <v>41134</v>
+      </c>
+      <c r="K4" s="1">
+        <v>41135</v>
+      </c>
+      <c r="L4" s="1">
+        <v>41137</v>
+      </c>
+      <c r="M4" s="1">
+        <v>41138</v>
+      </c>
+      <c r="N4" s="1">
+        <v>41141</v>
+      </c>
+      <c r="O4" s="1">
+        <v>41142</v>
+      </c>
+      <c r="P4" s="1">
+        <v>41143</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>41144</v>
+      </c>
+      <c r="R4" s="1">
+        <v>41145</v>
+      </c>
+      <c r="S4" s="1">
+        <v>41148</v>
+      </c>
+      <c r="T4" t="s">
+        <v>25</v>
+      </c>
+      <c r="U4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5">
+        <v>1</v>
+      </c>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5">
+        <v>1</v>
+      </c>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5">
+        <v>4</v>
+      </c>
+      <c r="D8" s="5">
+        <v>5</v>
+      </c>
+      <c r="E8" s="5">
+        <v>7</v>
+      </c>
+      <c r="F8" s="5">
+        <v>6</v>
+      </c>
+      <c r="G8" s="5">
+        <v>3</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5">
+        <v>2</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5">
+        <v>2</v>
+      </c>
+      <c r="L8" s="5">
+        <v>1</v>
+      </c>
+      <c r="M8" s="5">
+        <v>1</v>
+      </c>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>1</v>
+      </c>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1</v>
+      </c>
+      <c r="H10" s="5">
+        <v>1</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5">
+        <v>1</v>
+      </c>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="5">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1</v>
+      </c>
+      <c r="G12" s="5">
+        <v>1</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5">
+        <v>1</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5">
+        <v>1</v>
+      </c>
+      <c r="L12" s="5">
+        <v>1</v>
+      </c>
+      <c r="M12" s="5">
+        <v>1</v>
+      </c>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1</v>
+      </c>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5">
+        <v>1</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>1</v>
+      </c>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="5">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5">
+        <v>1</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="5">
+        <v>5</v>
+      </c>
+      <c r="C16" s="5">
+        <v>2</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5">
+        <v>1</v>
+      </c>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="5">
+        <v>1</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="5">
+        <v>1</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="5">
+        <v>1</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="5">
+        <v>1</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="5">
+        <v>1</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5">
+        <v>1</v>
+      </c>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5">
+        <v>1</v>
+      </c>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5">
+        <v>1</v>
+      </c>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5">
+        <v>1</v>
+      </c>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5">
+        <v>1</v>
+      </c>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5">
+        <v>1</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5">
+        <v>1</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5">
+        <v>3</v>
+      </c>
+      <c r="D29" s="5">
+        <v>3</v>
+      </c>
+      <c r="E29" s="5">
+        <v>1</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5">
+        <v>1</v>
+      </c>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5">
+        <v>1</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5">
+        <v>1</v>
+      </c>
+      <c r="D31" s="5">
+        <v>1</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5">
+        <v>1</v>
+      </c>
+      <c r="D32" s="5">
+        <v>1</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5">
+        <v>1</v>
+      </c>
+      <c r="D33" s="5">
+        <v>1</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5">
+        <v>1</v>
+      </c>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="5">
+        <v>3</v>
+      </c>
+      <c r="C34" s="5">
+        <v>3</v>
+      </c>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5">
+        <v>1</v>
+      </c>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="5">
+        <v>1</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="5">
+        <v>1</v>
+      </c>
+      <c r="C36" s="5">
+        <v>1</v>
+      </c>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5">
+        <v>1</v>
+      </c>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5">
+        <v>1</v>
+      </c>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5">
+        <v>1</v>
+      </c>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="5">
+        <v>1</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5">
+        <v>5</v>
+      </c>
+      <c r="G40" s="5">
+        <v>5</v>
+      </c>
+      <c r="H40" s="5">
+        <v>5</v>
+      </c>
+      <c r="I40" s="5">
+        <v>1</v>
+      </c>
+      <c r="J40" s="5">
+        <v>3</v>
+      </c>
+      <c r="K40" s="5">
+        <v>5</v>
+      </c>
+      <c r="L40" s="5">
+        <v>6</v>
+      </c>
+      <c r="M40" s="5">
+        <v>5</v>
+      </c>
+      <c r="N40" s="5">
+        <v>4</v>
+      </c>
+      <c r="O40" s="5">
+        <v>7</v>
+      </c>
+      <c r="P40" s="5">
+        <v>7</v>
+      </c>
+      <c r="Q40" s="5">
+        <v>6</v>
+      </c>
+      <c r="R40" s="5">
+        <v>5</v>
+      </c>
+      <c r="S40" s="5">
+        <v>7</v>
+      </c>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5">
+        <v>1</v>
+      </c>
+      <c r="G41" s="5">
+        <v>1</v>
+      </c>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5">
+        <v>1</v>
+      </c>
+      <c r="M41" s="5">
+        <v>1</v>
+      </c>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5">
+        <v>1</v>
+      </c>
+      <c r="P41" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="5">
+        <v>1</v>
+      </c>
+      <c r="R41" s="5">
+        <v>1</v>
+      </c>
+      <c r="S41" s="5">
+        <v>1</v>
+      </c>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5">
+        <v>1</v>
+      </c>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5">
+        <v>1</v>
+      </c>
+      <c r="L42" s="5">
+        <v>1</v>
+      </c>
+      <c r="M42" s="5">
+        <v>1</v>
+      </c>
+      <c r="N42" s="5">
+        <v>1</v>
+      </c>
+      <c r="O42" s="5">
+        <v>1</v>
+      </c>
+      <c r="P42" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="5">
+        <v>1</v>
+      </c>
+      <c r="R42" s="5"/>
+      <c r="S42" s="5">
+        <v>1</v>
+      </c>
+      <c r="T42" s="5"/>
+      <c r="U42" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5">
+        <v>1</v>
+      </c>
+      <c r="I43" s="5">
+        <v>1</v>
+      </c>
+      <c r="J43" s="5">
+        <v>1</v>
+      </c>
+      <c r="K43" s="5">
+        <v>1</v>
+      </c>
+      <c r="L43" s="5">
+        <v>1</v>
+      </c>
+      <c r="M43" s="5">
+        <v>1</v>
+      </c>
+      <c r="N43" s="5">
+        <v>1</v>
+      </c>
+      <c r="O43" s="5">
+        <v>1</v>
+      </c>
+      <c r="P43" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5">
+        <v>1</v>
+      </c>
+      <c r="S43" s="5">
+        <v>1</v>
+      </c>
+      <c r="T43" s="5"/>
+      <c r="U43" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5">
+        <v>1</v>
+      </c>
+      <c r="G44" s="5">
+        <v>1</v>
+      </c>
+      <c r="H44" s="5">
+        <v>1</v>
+      </c>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5">
+        <v>1</v>
+      </c>
+      <c r="L44" s="5">
+        <v>1</v>
+      </c>
+      <c r="M44" s="5">
+        <v>1</v>
+      </c>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5">
+        <v>1</v>
+      </c>
+      <c r="P44" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="5">
+        <v>1</v>
+      </c>
+      <c r="R44" s="5">
+        <v>1</v>
+      </c>
+      <c r="S44" s="5">
+        <v>1</v>
+      </c>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5">
+        <v>1</v>
+      </c>
+      <c r="G45" s="5">
+        <v>1</v>
+      </c>
+      <c r="H45" s="5">
+        <v>1</v>
+      </c>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5">
+        <v>1</v>
+      </c>
+      <c r="K45" s="5">
+        <v>1</v>
+      </c>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5">
+        <v>1</v>
+      </c>
+      <c r="P45" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="5">
+        <v>1</v>
+      </c>
+      <c r="R45" s="5">
+        <v>1</v>
+      </c>
+      <c r="S45" s="5">
+        <v>1</v>
+      </c>
+      <c r="T45" s="5"/>
+      <c r="U45" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5">
+        <v>1</v>
+      </c>
+      <c r="G46" s="5">
+        <v>1</v>
+      </c>
+      <c r="H46" s="5">
+        <v>1</v>
+      </c>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5">
+        <v>1</v>
+      </c>
+      <c r="K46" s="5">
+        <v>1</v>
+      </c>
+      <c r="L46" s="5">
+        <v>1</v>
+      </c>
+      <c r="M46" s="5">
+        <v>1</v>
+      </c>
+      <c r="N46" s="5">
+        <v>1</v>
+      </c>
+      <c r="O46" s="5">
+        <v>1</v>
+      </c>
+      <c r="P46" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="5">
+        <v>1</v>
+      </c>
+      <c r="R46" s="5"/>
+      <c r="S46" s="5">
+        <v>1</v>
+      </c>
+      <c r="T46" s="5"/>
+      <c r="U46" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5">
+        <v>1</v>
+      </c>
+      <c r="G47" s="5">
+        <v>1</v>
+      </c>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5">
+        <v>1</v>
+      </c>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5">
+        <v>1</v>
+      </c>
+      <c r="O47" s="5">
+        <v>1</v>
+      </c>
+      <c r="P47" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="5">
+        <v>1</v>
+      </c>
+      <c r="R47" s="5">
+        <v>1</v>
+      </c>
+      <c r="S47" s="5">
+        <v>1</v>
+      </c>
+      <c r="T47" s="5"/>
+      <c r="U47" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5">
+        <v>1</v>
+      </c>
+      <c r="G48" s="5">
+        <v>1</v>
+      </c>
+      <c r="H48" s="5">
+        <v>1</v>
+      </c>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5">
+        <v>3</v>
+      </c>
+      <c r="K48" s="5">
+        <v>5</v>
+      </c>
+      <c r="L48" s="5">
+        <v>3</v>
+      </c>
+      <c r="M48" s="5">
+        <v>1</v>
+      </c>
+      <c r="N48" s="5">
+        <v>2</v>
+      </c>
+      <c r="O48" s="5">
+        <v>3</v>
+      </c>
+      <c r="P48" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="5">
+        <v>1</v>
+      </c>
+      <c r="R48" s="5">
+        <v>3</v>
+      </c>
+      <c r="S48" s="5">
+        <v>2</v>
+      </c>
+      <c r="T48" s="5"/>
+      <c r="U48" s="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5">
+        <v>1</v>
+      </c>
+      <c r="K49" s="5">
+        <v>1</v>
+      </c>
+      <c r="L49" s="5">
+        <v>1</v>
+      </c>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="5"/>
+      <c r="S49" s="5"/>
+      <c r="T49" s="5"/>
+      <c r="U49" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5">
+        <v>1</v>
+      </c>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="5"/>
+      <c r="R50" s="5"/>
+      <c r="S50" s="5"/>
+      <c r="T50" s="5"/>
+      <c r="U50" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5">
+        <v>1</v>
+      </c>
+      <c r="K51" s="5">
+        <v>1</v>
+      </c>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5">
+        <v>1</v>
+      </c>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="5">
+        <v>1</v>
+      </c>
+      <c r="S51" s="5">
+        <v>1</v>
+      </c>
+      <c r="T51" s="5"/>
+      <c r="U51" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5">
+        <v>1</v>
+      </c>
+      <c r="K52" s="5">
+        <v>1</v>
+      </c>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="5"/>
+      <c r="R52" s="5">
+        <v>1</v>
+      </c>
+      <c r="S52" s="5"/>
+      <c r="T52" s="5"/>
+      <c r="U52" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5">
+        <v>1</v>
+      </c>
+      <c r="L53" s="5">
+        <v>1</v>
+      </c>
+      <c r="M53" s="5">
+        <v>1</v>
+      </c>
+      <c r="N53" s="5">
+        <v>1</v>
+      </c>
+      <c r="O53" s="5">
+        <v>1</v>
+      </c>
+      <c r="P53" s="5"/>
+      <c r="Q53" s="5"/>
+      <c r="R53" s="5"/>
+      <c r="S53" s="5"/>
+      <c r="T53" s="5"/>
+      <c r="U53" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5">
+        <v>1</v>
+      </c>
+      <c r="H54" s="5">
+        <v>1</v>
+      </c>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5">
+        <v>1</v>
+      </c>
+      <c r="L54" s="5">
+        <v>1</v>
+      </c>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5">
+        <v>1</v>
+      </c>
+      <c r="O54" s="5">
+        <v>1</v>
+      </c>
+      <c r="P54" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="5">
+        <v>1</v>
+      </c>
+      <c r="R54" s="5">
+        <v>1</v>
+      </c>
+      <c r="S54" s="5">
+        <v>1</v>
+      </c>
+      <c r="T54" s="5"/>
+      <c r="U54" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5">
+        <v>2</v>
+      </c>
+      <c r="I55" s="5">
+        <v>1</v>
+      </c>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5">
+        <v>1</v>
+      </c>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5"/>
+      <c r="O55" s="5"/>
+      <c r="P55" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q55" s="5"/>
+      <c r="R55" s="5"/>
+      <c r="S55" s="5"/>
+      <c r="T55" s="5"/>
+      <c r="U55" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5">
+        <v>1</v>
+      </c>
+      <c r="I56" s="5">
+        <v>1</v>
+      </c>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5"/>
+      <c r="R56" s="5"/>
+      <c r="S56" s="5"/>
+      <c r="T56" s="5"/>
+      <c r="U56" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="5"/>
+      <c r="P57" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="5"/>
+      <c r="R57" s="5"/>
+      <c r="S57" s="5"/>
+      <c r="T57" s="5"/>
+      <c r="U57" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5">
+        <v>1</v>
+      </c>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5">
+        <v>1</v>
+      </c>
+      <c r="M58" s="5"/>
+      <c r="N58" s="5"/>
+      <c r="O58" s="5"/>
+      <c r="P58" s="5"/>
+      <c r="Q58" s="5"/>
+      <c r="R58" s="5"/>
+      <c r="S58" s="5"/>
+      <c r="T58" s="5"/>
+      <c r="U58" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5">
+        <v>6</v>
+      </c>
+      <c r="J59" s="5">
+        <v>6</v>
+      </c>
+      <c r="K59" s="5">
+        <v>5</v>
+      </c>
+      <c r="L59" s="5"/>
+      <c r="M59" s="5"/>
+      <c r="N59" s="5"/>
+      <c r="O59" s="5"/>
+      <c r="P59" s="5"/>
+      <c r="Q59" s="5"/>
+      <c r="R59" s="5"/>
+      <c r="S59" s="5"/>
+      <c r="T59" s="5"/>
+      <c r="U59" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5">
+        <v>1</v>
+      </c>
+      <c r="J60" s="5">
+        <v>1</v>
+      </c>
+      <c r="K60" s="5">
+        <v>1</v>
+      </c>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="5"/>
+      <c r="O60" s="5"/>
+      <c r="P60" s="5"/>
+      <c r="Q60" s="5"/>
+      <c r="R60" s="5"/>
+      <c r="S60" s="5"/>
+      <c r="T60" s="5"/>
+      <c r="U60" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5">
+        <v>1</v>
+      </c>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5">
+        <v>1</v>
+      </c>
+      <c r="L61" s="5"/>
+      <c r="M61" s="5"/>
+      <c r="N61" s="5"/>
+      <c r="O61" s="5"/>
+      <c r="P61" s="5"/>
+      <c r="Q61" s="5"/>
+      <c r="R61" s="5"/>
+      <c r="S61" s="5"/>
+      <c r="T61" s="5"/>
+      <c r="U61" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5">
+        <v>1</v>
+      </c>
+      <c r="J62" s="5">
+        <v>1</v>
+      </c>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="5"/>
+      <c r="N62" s="5"/>
+      <c r="O62" s="5"/>
+      <c r="P62" s="5"/>
+      <c r="Q62" s="5"/>
+      <c r="R62" s="5"/>
+      <c r="S62" s="5"/>
+      <c r="T62" s="5"/>
+      <c r="U62" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5">
+        <v>1</v>
+      </c>
+      <c r="J63" s="5">
+        <v>1</v>
+      </c>
+      <c r="K63" s="5">
+        <v>1</v>
+      </c>
+      <c r="L63" s="5"/>
+      <c r="M63" s="5"/>
+      <c r="N63" s="5"/>
+      <c r="O63" s="5"/>
+      <c r="P63" s="5"/>
+      <c r="Q63" s="5"/>
+      <c r="R63" s="5"/>
+      <c r="S63" s="5"/>
+      <c r="T63" s="5"/>
+      <c r="U63" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A64" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5">
+        <v>1</v>
+      </c>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5"/>
+      <c r="M64" s="5"/>
+      <c r="N64" s="5"/>
+      <c r="O64" s="5"/>
+      <c r="P64" s="5"/>
+      <c r="Q64" s="5"/>
+      <c r="R64" s="5"/>
+      <c r="S64" s="5"/>
+      <c r="T64" s="5"/>
+      <c r="U64" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5">
+        <v>1</v>
+      </c>
+      <c r="J65" s="5">
+        <v>1</v>
+      </c>
+      <c r="K65" s="5">
+        <v>1</v>
+      </c>
+      <c r="L65" s="5"/>
+      <c r="M65" s="5"/>
+      <c r="N65" s="5"/>
+      <c r="O65" s="5"/>
+      <c r="P65" s="5"/>
+      <c r="Q65" s="5"/>
+      <c r="R65" s="5"/>
+      <c r="S65" s="5"/>
+      <c r="T65" s="5"/>
+      <c r="U65" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5">
+        <v>1</v>
+      </c>
+      <c r="J66" s="5">
+        <v>1</v>
+      </c>
+      <c r="K66" s="5">
+        <v>1</v>
+      </c>
+      <c r="L66" s="5"/>
+      <c r="M66" s="5"/>
+      <c r="N66" s="5"/>
+      <c r="O66" s="5"/>
+      <c r="P66" s="5"/>
+      <c r="Q66" s="5"/>
+      <c r="R66" s="5"/>
+      <c r="S66" s="5"/>
+      <c r="T66" s="5"/>
+      <c r="U66" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67" s="5">
+        <v>5</v>
+      </c>
+      <c r="C67" s="5">
+        <v>5</v>
+      </c>
+      <c r="D67" s="5">
+        <v>5</v>
+      </c>
+      <c r="E67" s="5">
+        <v>7</v>
+      </c>
+      <c r="F67" s="5">
+        <v>7</v>
+      </c>
+      <c r="G67" s="5">
+        <v>7</v>
+      </c>
+      <c r="H67" s="5">
+        <v>7</v>
+      </c>
+      <c r="I67" s="5">
+        <v>6</v>
+      </c>
+      <c r="J67" s="5">
+        <v>6</v>
+      </c>
+      <c r="K67" s="5">
+        <v>7</v>
+      </c>
+      <c r="L67" s="5">
+        <v>6</v>
+      </c>
+      <c r="M67" s="5">
+        <v>5</v>
+      </c>
+      <c r="N67" s="5">
+        <v>6</v>
+      </c>
+      <c r="O67" s="5">
+        <v>7</v>
+      </c>
+      <c r="P67" s="5">
+        <v>7</v>
+      </c>
+      <c r="Q67" s="5">
+        <v>7</v>
+      </c>
+      <c r="R67" s="5">
+        <v>6</v>
+      </c>
+      <c r="S67" s="5">
+        <v>7</v>
+      </c>
+      <c r="T67" s="5"/>
+      <c r="U67" s="5">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" s="5">
+        <v>1</v>
+      </c>
+      <c r="C68" s="5">
+        <v>1</v>
+      </c>
+      <c r="D68" s="5">
+        <v>1</v>
+      </c>
+      <c r="E68" s="5">
+        <v>1</v>
+      </c>
+      <c r="F68" s="5">
+        <v>1</v>
+      </c>
+      <c r="G68" s="5">
+        <v>1</v>
+      </c>
+      <c r="H68" s="5">
+        <v>1</v>
+      </c>
+      <c r="I68" s="5">
+        <v>1</v>
+      </c>
+      <c r="J68" s="5">
+        <v>1</v>
+      </c>
+      <c r="K68" s="5">
+        <v>1</v>
+      </c>
+      <c r="L68" s="5">
+        <v>1</v>
+      </c>
+      <c r="M68" s="5">
+        <v>1</v>
+      </c>
+      <c r="N68" s="5">
+        <v>1</v>
+      </c>
+      <c r="O68" s="5">
+        <v>1</v>
+      </c>
+      <c r="P68" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q68" s="5">
+        <v>1</v>
+      </c>
+      <c r="R68" s="5">
+        <v>1</v>
+      </c>
+      <c r="S68" s="5">
+        <v>1</v>
+      </c>
+      <c r="T68" s="5"/>
+      <c r="U68" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A69" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" s="5">
+        <v>1</v>
+      </c>
+      <c r="C69" s="5">
+        <v>1</v>
+      </c>
+      <c r="D69" s="5">
+        <v>1</v>
+      </c>
+      <c r="E69" s="5">
+        <v>1</v>
+      </c>
+      <c r="F69" s="5">
+        <v>1</v>
+      </c>
+      <c r="G69" s="5">
+        <v>1</v>
+      </c>
+      <c r="H69" s="5">
+        <v>1</v>
+      </c>
+      <c r="I69" s="5">
+        <v>1</v>
+      </c>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5">
+        <v>1</v>
+      </c>
+      <c r="L69" s="5">
+        <v>1</v>
+      </c>
+      <c r="M69" s="5">
+        <v>1</v>
+      </c>
+      <c r="N69" s="5">
+        <v>1</v>
+      </c>
+      <c r="O69" s="5">
+        <v>1</v>
+      </c>
+      <c r="P69" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q69" s="5">
+        <v>1</v>
+      </c>
+      <c r="R69" s="5">
+        <v>1</v>
+      </c>
+      <c r="S69" s="5">
+        <v>1</v>
+      </c>
+      <c r="T69" s="5"/>
+      <c r="U69" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A70" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70" s="5">
+        <v>1</v>
+      </c>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5">
+        <v>1</v>
+      </c>
+      <c r="F70" s="5">
+        <v>1</v>
+      </c>
+      <c r="G70" s="5">
+        <v>1</v>
+      </c>
+      <c r="H70" s="5">
+        <v>1</v>
+      </c>
+      <c r="I70" s="5">
+        <v>1</v>
+      </c>
+      <c r="J70" s="5">
+        <v>1</v>
+      </c>
+      <c r="K70" s="5">
+        <v>1</v>
+      </c>
+      <c r="L70" s="5">
+        <v>1</v>
+      </c>
+      <c r="M70" s="5">
+        <v>1</v>
+      </c>
+      <c r="N70" s="5">
+        <v>1</v>
+      </c>
+      <c r="O70" s="5">
+        <v>1</v>
+      </c>
+      <c r="P70" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q70" s="5">
+        <v>1</v>
+      </c>
+      <c r="R70" s="5">
+        <v>1</v>
+      </c>
+      <c r="S70" s="5">
+        <v>1</v>
+      </c>
+      <c r="T70" s="5"/>
+      <c r="U70" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71" s="5">
+        <v>1</v>
+      </c>
+      <c r="C71" s="5">
+        <v>1</v>
+      </c>
+      <c r="D71" s="5">
+        <v>1</v>
+      </c>
+      <c r="E71" s="5">
+        <v>1</v>
+      </c>
+      <c r="F71" s="5">
+        <v>1</v>
+      </c>
+      <c r="G71" s="5">
+        <v>1</v>
+      </c>
+      <c r="H71" s="5">
+        <v>1</v>
+      </c>
+      <c r="I71" s="5">
+        <v>1</v>
+      </c>
+      <c r="J71" s="5">
+        <v>1</v>
+      </c>
+      <c r="K71" s="5">
+        <v>1</v>
+      </c>
+      <c r="L71" s="5">
+        <v>1</v>
+      </c>
+      <c r="M71" s="5">
+        <v>1</v>
+      </c>
+      <c r="N71" s="5"/>
+      <c r="O71" s="5">
+        <v>1</v>
+      </c>
+      <c r="P71" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q71" s="5">
+        <v>1</v>
+      </c>
+      <c r="R71" s="5">
+        <v>1</v>
+      </c>
+      <c r="S71" s="5">
+        <v>1</v>
+      </c>
+      <c r="T71" s="5"/>
+      <c r="U71" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A72" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5">
+        <v>1</v>
+      </c>
+      <c r="F72" s="5">
+        <v>1</v>
+      </c>
+      <c r="G72" s="5">
+        <v>1</v>
+      </c>
+      <c r="H72" s="5">
+        <v>1</v>
+      </c>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5">
+        <v>1</v>
+      </c>
+      <c r="K72" s="5">
+        <v>1</v>
+      </c>
+      <c r="L72" s="5"/>
+      <c r="M72" s="5"/>
+      <c r="N72" s="5">
+        <v>1</v>
+      </c>
+      <c r="O72" s="5">
+        <v>1</v>
+      </c>
+      <c r="P72" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q72" s="5">
+        <v>1</v>
+      </c>
+      <c r="R72" s="5">
+        <v>1</v>
+      </c>
+      <c r="S72" s="5">
+        <v>1</v>
+      </c>
+      <c r="T72" s="5"/>
+      <c r="U72" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A73" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5">
+        <v>1</v>
+      </c>
+      <c r="D73" s="5">
+        <v>1</v>
+      </c>
+      <c r="E73" s="5">
+        <v>1</v>
+      </c>
+      <c r="F73" s="5">
+        <v>1</v>
+      </c>
+      <c r="G73" s="5">
+        <v>1</v>
+      </c>
+      <c r="H73" s="5">
+        <v>1</v>
+      </c>
+      <c r="I73" s="5">
+        <v>1</v>
+      </c>
+      <c r="J73" s="5">
+        <v>1</v>
+      </c>
+      <c r="K73" s="5">
+        <v>1</v>
+      </c>
+      <c r="L73" s="5">
+        <v>1</v>
+      </c>
+      <c r="M73" s="5">
+        <v>1</v>
+      </c>
+      <c r="N73" s="5">
+        <v>1</v>
+      </c>
+      <c r="O73" s="5">
+        <v>1</v>
+      </c>
+      <c r="P73" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q73" s="5">
+        <v>1</v>
+      </c>
+      <c r="R73" s="5"/>
+      <c r="S73" s="5">
+        <v>1</v>
+      </c>
+      <c r="T73" s="5"/>
+      <c r="U73" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A74" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B74" s="5">
+        <v>1</v>
+      </c>
+      <c r="C74" s="5">
+        <v>1</v>
+      </c>
+      <c r="D74" s="5">
+        <v>1</v>
+      </c>
+      <c r="E74" s="5">
+        <v>1</v>
+      </c>
+      <c r="F74" s="5">
+        <v>1</v>
+      </c>
+      <c r="G74" s="5">
+        <v>1</v>
+      </c>
+      <c r="H74" s="5">
+        <v>1</v>
+      </c>
+      <c r="I74" s="5">
+        <v>1</v>
+      </c>
+      <c r="J74" s="5">
+        <v>1</v>
+      </c>
+      <c r="K74" s="5">
+        <v>1</v>
+      </c>
+      <c r="L74" s="5">
+        <v>1</v>
+      </c>
+      <c r="M74" s="5"/>
+      <c r="N74" s="5">
+        <v>1</v>
+      </c>
+      <c r="O74" s="5">
+        <v>1</v>
+      </c>
+      <c r="P74" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q74" s="5">
+        <v>1</v>
+      </c>
+      <c r="R74" s="5">
+        <v>1</v>
+      </c>
+      <c r="S74" s="5">
+        <v>1</v>
+      </c>
+      <c r="T74" s="5"/>
+      <c r="U74" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="5"/>
+      <c r="L75" s="5"/>
+      <c r="M75" s="5"/>
+      <c r="N75" s="5"/>
+      <c r="O75" s="5"/>
+      <c r="P75" s="5"/>
+      <c r="Q75" s="5"/>
+      <c r="R75" s="5"/>
+      <c r="S75" s="5"/>
+      <c r="T75" s="5"/>
+      <c r="U75" s="5"/>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A76" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="5"/>
+      <c r="L76" s="5"/>
+      <c r="M76" s="5"/>
+      <c r="N76" s="5"/>
+      <c r="O76" s="5"/>
+      <c r="P76" s="5"/>
+      <c r="Q76" s="5"/>
+      <c r="R76" s="5"/>
+      <c r="S76" s="5"/>
+      <c r="T76" s="5"/>
+      <c r="U76" s="5"/>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B77" s="5">
+        <v>19</v>
+      </c>
+      <c r="C77" s="5">
+        <v>19</v>
+      </c>
+      <c r="D77" s="5">
+        <v>15</v>
+      </c>
+      <c r="E77" s="5">
+        <v>17</v>
+      </c>
+      <c r="F77" s="5">
+        <v>21</v>
+      </c>
+      <c r="G77" s="5">
+        <v>16</v>
+      </c>
+      <c r="H77" s="5">
+        <v>17</v>
+      </c>
+      <c r="I77" s="5">
+        <v>16</v>
+      </c>
+      <c r="J77" s="5">
+        <v>18</v>
+      </c>
+      <c r="K77" s="5">
+        <v>25</v>
+      </c>
+      <c r="L77" s="5">
+        <v>19</v>
+      </c>
+      <c r="M77" s="5">
+        <v>12</v>
+      </c>
+      <c r="N77" s="5">
+        <v>12</v>
+      </c>
+      <c r="O77" s="5">
+        <v>17</v>
+      </c>
+      <c r="P77" s="5">
+        <v>17</v>
+      </c>
+      <c r="Q77" s="5">
+        <v>15</v>
+      </c>
+      <c r="R77" s="5">
+        <v>14</v>
+      </c>
+      <c r="S77" s="5">
+        <v>16</v>
+      </c>
+      <c r="T77" s="5"/>
+      <c r="U77" s="5">
+        <v>305</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Arkusz1"/>
   <dimension ref="A1:D306"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -538,7 +5720,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>41122</v>
       </c>
@@ -552,7 +5734,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>41122</v>
       </c>
@@ -566,7 +5748,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>41122</v>
       </c>
@@ -580,7 +5762,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>41122</v>
       </c>
@@ -594,7 +5776,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>41122</v>
       </c>
@@ -608,7 +5790,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>41122</v>
       </c>
@@ -622,7 +5804,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>41122</v>
       </c>
@@ -636,7 +5818,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>41122</v>
       </c>
@@ -650,7 +5832,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>41122</v>
       </c>
@@ -664,7 +5846,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>41122</v>
       </c>
@@ -678,7 +5860,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>41122</v>
       </c>
@@ -692,7 +5874,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>41122</v>
       </c>
@@ -706,7 +5888,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>41122</v>
       </c>
@@ -720,7 +5902,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>41122</v>
       </c>
@@ -734,7 +5916,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>41122</v>
       </c>
@@ -748,7 +5930,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>41122</v>
       </c>
@@ -762,7 +5944,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>41122</v>
       </c>
@@ -776,7 +5958,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>41122</v>
       </c>
@@ -790,7 +5972,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>41122</v>
       </c>
@@ -804,7 +5986,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>41123</v>
       </c>
@@ -818,7 +6000,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>41123</v>
       </c>
@@ -832,7 +6014,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>41123</v>
       </c>
@@ -846,7 +6028,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>41123</v>
       </c>
@@ -860,7 +6042,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>41123</v>
       </c>
@@ -874,7 +6056,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>41123</v>
       </c>
@@ -888,7 +6070,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>41123</v>
       </c>
@@ -902,7 +6084,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>41123</v>
       </c>
@@ -916,7 +6098,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>41123</v>
       </c>
@@ -930,7 +6112,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>41123</v>
       </c>
@@ -944,7 +6126,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>41123</v>
       </c>
@@ -958,7 +6140,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>41123</v>
       </c>
@@ -972,7 +6154,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>41123</v>
       </c>
@@ -986,7 +6168,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>41123</v>
       </c>
@@ -1000,7 +6182,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>41123</v>
       </c>
@@ -1014,7 +6196,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>41123</v>
       </c>
@@ -1028,7 +6210,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>41123</v>
       </c>
@@ -1042,7 +6224,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>41123</v>
       </c>
@@ -1056,7 +6238,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>41123</v>
       </c>
@@ -1070,7 +6252,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>41124</v>
       </c>
@@ -1084,7 +6266,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>41124</v>
       </c>
@@ -1098,7 +6280,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41124</v>
       </c>
@@ -1112,7 +6294,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41124</v>
       </c>
@@ -1126,7 +6308,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>41124</v>
       </c>
@@ -1140,7 +6322,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>41124</v>
       </c>
@@ -1154,7 +6336,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>41124</v>
       </c>
@@ -1168,7 +6350,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>41124</v>
       </c>
@@ -1182,7 +6364,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>41124</v>
       </c>
@@ -1196,7 +6378,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>41124</v>
       </c>
@@ -1210,7 +6392,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>41124</v>
       </c>
@@ -1224,7 +6406,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>41124</v>
       </c>
@@ -1238,7 +6420,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>41124</v>
       </c>
@@ -1252,7 +6434,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>41124</v>
       </c>
@@ -1266,7 +6448,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>41124</v>
       </c>
@@ -1280,7 +6462,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>41127</v>
       </c>
@@ -1294,7 +6476,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>41127</v>
       </c>
@@ -1308,7 +6490,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>41127</v>
       </c>
@@ -1322,7 +6504,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>41127</v>
       </c>
@@ -1336,7 +6518,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>41127</v>
       </c>
@@ -1350,7 +6532,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>41127</v>
       </c>
@@ -1364,7 +6546,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>41127</v>
       </c>
@@ -1378,7 +6560,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>41127</v>
       </c>
@@ -1392,7 +6574,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>41127</v>
       </c>
@@ -1406,7 +6588,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>41127</v>
       </c>
@@ -1420,7 +6602,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>41127</v>
       </c>
@@ -1434,7 +6616,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>41127</v>
       </c>
@@ -1448,7 +6630,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>41127</v>
       </c>
@@ -1462,7 +6644,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>41127</v>
       </c>
@@ -1476,7 +6658,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>41127</v>
       </c>
@@ -1490,7 +6672,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>41127</v>
       </c>
@@ -1504,7 +6686,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>41127</v>
       </c>
@@ -1518,7 +6700,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>41128</v>
       </c>
@@ -1532,7 +6714,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>41128</v>
       </c>
@@ -1546,7 +6728,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>41128</v>
       </c>
@@ -1560,7 +6742,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>41128</v>
       </c>
@@ -1574,7 +6756,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>41128</v>
       </c>
@@ -1588,7 +6770,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>41128</v>
       </c>
@@ -1602,7 +6784,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>41128</v>
       </c>
@@ -1616,7 +6798,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>41128</v>
       </c>
@@ -1630,7 +6812,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>41128</v>
       </c>
@@ -1644,7 +6826,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>41128</v>
       </c>
@@ -1658,7 +6840,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>41128</v>
       </c>
@@ -1672,7 +6854,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>41128</v>
       </c>
@@ -1686,7 +6868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>41128</v>
       </c>
@@ -1700,7 +6882,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>41128</v>
       </c>
@@ -1714,7 +6896,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>41128</v>
       </c>
@@ -1728,7 +6910,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>41128</v>
       </c>
@@ -1742,7 +6924,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>41128</v>
       </c>
@@ -1756,7 +6938,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>41128</v>
       </c>
@@ -1770,7 +6952,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>41128</v>
       </c>
@@ -1784,7 +6966,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>41128</v>
       </c>
@@ -1798,7 +6980,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>41128</v>
       </c>
@@ -1812,7 +6994,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>41129</v>
       </c>
@@ -1826,7 +7008,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>41129</v>
       </c>
@@ -1840,7 +7022,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>41129</v>
       </c>
@@ -1854,7 +7036,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>41129</v>
       </c>
@@ -1868,7 +7050,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>41129</v>
       </c>
@@ -1882,7 +7064,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>41129</v>
       </c>
@@ -1896,7 +7078,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>41129</v>
       </c>
@@ -1910,7 +7092,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>41129</v>
       </c>
@@ -1924,7 +7106,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>41129</v>
       </c>
@@ -1938,7 +7120,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>41129</v>
       </c>
@@ -1952,7 +7134,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>41129</v>
       </c>
@@ -1966,7 +7148,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>41129</v>
       </c>
@@ -1980,7 +7162,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>41129</v>
       </c>
@@ -1994,7 +7176,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>41129</v>
       </c>
@@ -2008,7 +7190,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>41129</v>
       </c>
@@ -2022,7 +7204,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>41129</v>
       </c>
@@ -2036,7 +7218,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>41130</v>
       </c>
@@ -2050,7 +7232,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>41130</v>
       </c>
@@ -2064,7 +7246,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>41130</v>
       </c>
@@ -2078,7 +7260,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>41130</v>
       </c>
@@ -2092,7 +7274,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>41130</v>
       </c>
@@ -2106,7 +7288,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>41130</v>
       </c>
@@ -2120,7 +7302,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>41130</v>
       </c>
@@ -2134,7 +7316,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>41130</v>
       </c>
@@ -2148,7 +7330,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>41130</v>
       </c>
@@ -2162,7 +7344,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>41130</v>
       </c>
@@ -2176,7 +7358,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>41130</v>
       </c>
@@ -2190,7 +7372,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>41130</v>
       </c>
@@ -2204,7 +7386,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>41130</v>
       </c>
@@ -2218,7 +7400,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>41130</v>
       </c>
@@ -2232,7 +7414,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>41130</v>
       </c>
@@ -2246,7 +7428,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>41130</v>
       </c>
@@ -2260,7 +7442,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>41130</v>
       </c>
@@ -2274,7 +7456,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>41131</v>
       </c>
@@ -2288,7 +7470,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>41131</v>
       </c>
@@ -2302,7 +7484,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>41131</v>
       </c>
@@ -2316,7 +7498,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>41131</v>
       </c>
@@ -2330,7 +7512,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>41131</v>
       </c>
@@ -2344,7 +7526,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>41131</v>
       </c>
@@ -2358,7 +7540,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>41131</v>
       </c>
@@ -2372,7 +7554,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>41131</v>
       </c>
@@ -2386,7 +7568,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>41131</v>
       </c>
@@ -2400,7 +7582,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>41131</v>
       </c>
@@ -2414,7 +7596,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>41131</v>
       </c>
@@ -2428,7 +7610,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>41131</v>
       </c>
@@ -2442,7 +7624,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>41131</v>
       </c>
@@ -2456,7 +7638,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>41131</v>
       </c>
@@ -2470,7 +7652,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>41131</v>
       </c>
@@ -2484,7 +7666,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>41131</v>
       </c>
@@ -2498,7 +7680,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>41134</v>
       </c>
@@ -2512,7 +7694,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>41134</v>
       </c>
@@ -2526,7 +7708,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>41134</v>
       </c>
@@ -2540,7 +7722,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>41134</v>
       </c>
@@ -2554,7 +7736,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>41134</v>
       </c>
@@ -2568,7 +7750,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>41134</v>
       </c>
@@ -2582,7 +7764,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>41134</v>
       </c>
@@ -2596,7 +7778,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>41134</v>
       </c>
@@ -2610,7 +7792,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>41134</v>
       </c>
@@ -2624,7 +7806,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>41134</v>
       </c>
@@ -2638,7 +7820,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>41134</v>
       </c>
@@ -2652,7 +7834,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>41134</v>
       </c>
@@ -2666,7 +7848,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>41134</v>
       </c>
@@ -2680,7 +7862,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>41134</v>
       </c>
@@ -2694,7 +7876,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>41134</v>
       </c>
@@ -2708,7 +7890,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>41134</v>
       </c>
@@ -2722,7 +7904,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>41134</v>
       </c>
@@ -2736,7 +7918,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>41134</v>
       </c>
@@ -2750,7 +7932,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>41135</v>
       </c>
@@ -2764,7 +7946,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>41135</v>
       </c>
@@ -2778,7 +7960,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>41135</v>
       </c>
@@ -2792,7 +7974,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>41135</v>
       </c>
@@ -2806,7 +7988,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>41135</v>
       </c>
@@ -2820,7 +8002,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>41135</v>
       </c>
@@ -2834,7 +8016,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>41135</v>
       </c>
@@ -2848,7 +8030,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>41135</v>
       </c>
@@ -2862,7 +8044,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>41135</v>
       </c>
@@ -2876,7 +8058,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>41135</v>
       </c>
@@ -2890,7 +8072,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>41135</v>
       </c>
@@ -2904,7 +8086,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>41135</v>
       </c>
@@ -2918,7 +8100,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>41135</v>
       </c>
@@ -2932,7 +8114,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>41135</v>
       </c>
@@ -2946,7 +8128,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>41135</v>
       </c>
@@ -2960,7 +8142,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>41135</v>
       </c>
@@ -2974,7 +8156,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>41135</v>
       </c>
@@ -2988,7 +8170,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>41135</v>
       </c>
@@ -3002,7 +8184,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>41135</v>
       </c>
@@ -3016,7 +8198,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>41135</v>
       </c>
@@ -3030,7 +8212,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>41135</v>
       </c>
@@ -3044,7 +8226,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>41135</v>
       </c>
@@ -3058,7 +8240,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>41135</v>
       </c>
@@ -3072,7 +8254,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>41135</v>
       </c>
@@ -3086,7 +8268,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>41135</v>
       </c>
@@ -3100,7 +8282,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>41137</v>
       </c>
@@ -3114,7 +8296,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>41137</v>
       </c>
@@ -3128,7 +8310,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>41137</v>
       </c>
@@ -3142,7 +8324,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>41137</v>
       </c>
@@ -3156,7 +8338,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>41137</v>
       </c>
@@ -3170,7 +8352,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>41137</v>
       </c>
@@ -3184,7 +8366,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>41137</v>
       </c>
@@ -3198,7 +8380,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>41137</v>
       </c>
@@ -3212,7 +8394,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>41137</v>
       </c>
@@ -3226,7 +8408,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>41137</v>
       </c>
@@ -3240,7 +8422,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>41137</v>
       </c>
@@ -3254,7 +8436,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>41137</v>
       </c>
@@ -3268,7 +8450,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>41137</v>
       </c>
@@ -3282,7 +8464,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>41137</v>
       </c>
@@ -3296,7 +8478,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>41137</v>
       </c>
@@ -3310,7 +8492,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>41137</v>
       </c>
@@ -3324,7 +8506,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>41137</v>
       </c>
@@ -3338,7 +8520,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>41137</v>
       </c>
@@ -3352,7 +8534,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>41137</v>
       </c>
@@ -3366,7 +8548,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>41138</v>
       </c>
@@ -3380,7 +8562,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>41138</v>
       </c>
@@ -3394,7 +8576,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>41138</v>
       </c>
@@ -3408,7 +8590,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>41138</v>
       </c>
@@ -3422,7 +8604,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>41138</v>
       </c>
@@ -3436,7 +8618,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>41138</v>
       </c>
@@ -3450,7 +8632,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>41138</v>
       </c>
@@ -3464,7 +8646,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>41138</v>
       </c>
@@ -3478,7 +8660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>41138</v>
       </c>
@@ -3492,7 +8674,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>41138</v>
       </c>
@@ -3506,7 +8688,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>41138</v>
       </c>
@@ -3520,7 +8702,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>41138</v>
       </c>
@@ -3534,7 +8716,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>41141</v>
       </c>
@@ -3548,7 +8730,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>41141</v>
       </c>
@@ -3562,7 +8744,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>41141</v>
       </c>
@@ -3576,7 +8758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>41141</v>
       </c>
@@ -3590,7 +8772,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>41141</v>
       </c>
@@ -3604,7 +8786,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>41141</v>
       </c>
@@ -3618,7 +8800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>41141</v>
       </c>
@@ -3632,7 +8814,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>41141</v>
       </c>
@@ -3646,7 +8828,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>41141</v>
       </c>
@@ -3660,7 +8842,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>41141</v>
       </c>
@@ -3674,7 +8856,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>41141</v>
       </c>
@@ -3688,7 +8870,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>41141</v>
       </c>
@@ -3702,7 +8884,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>41142</v>
       </c>
@@ -3716,7 +8898,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>41142</v>
       </c>
@@ -3730,7 +8912,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>41142</v>
       </c>
@@ -3744,7 +8926,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>41142</v>
       </c>
@@ -3758,7 +8940,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>41142</v>
       </c>
@@ -3772,7 +8954,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>41142</v>
       </c>
@@ -3786,7 +8968,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>41142</v>
       </c>
@@ -3800,7 +8982,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>41142</v>
       </c>
@@ -3814,7 +8996,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>41142</v>
       </c>
@@ -3828,7 +9010,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>41142</v>
       </c>
@@ -3842,7 +9024,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>41142</v>
       </c>
@@ -3856,7 +9038,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>41142</v>
       </c>
@@ -3870,7 +9052,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>41142</v>
       </c>
@@ -3884,7 +9066,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>41142</v>
       </c>
@@ -3898,7 +9080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>41142</v>
       </c>
@@ -3912,7 +9094,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>41142</v>
       </c>
@@ -3926,7 +9108,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>41142</v>
       </c>
@@ -3940,7 +9122,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>41143</v>
       </c>
@@ -3954,7 +9136,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>41143</v>
       </c>
@@ -3968,7 +9150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>41143</v>
       </c>
@@ -3982,7 +9164,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>41143</v>
       </c>
@@ -3996,7 +9178,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>41143</v>
       </c>
@@ -4010,7 +9192,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>41143</v>
       </c>
@@ -4024,7 +9206,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>41143</v>
       </c>
@@ -4038,7 +9220,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>41143</v>
       </c>
@@ -4052,7 +9234,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>41143</v>
       </c>
@@ -4066,7 +9248,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>41143</v>
       </c>
@@ -4080,7 +9262,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>41143</v>
       </c>
@@ -4094,7 +9276,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>41143</v>
       </c>
@@ -4108,7 +9290,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>41143</v>
       </c>
@@ -4122,7 +9304,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>41143</v>
       </c>
@@ -4136,7 +9318,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>41143</v>
       </c>
@@ -4150,7 +9332,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>41143</v>
       </c>
@@ -4164,7 +9346,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>41143</v>
       </c>
@@ -4178,7 +9360,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>41144</v>
       </c>
@@ -4192,7 +9374,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>41144</v>
       </c>
@@ -4206,7 +9388,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>41144</v>
       </c>
@@ -4220,7 +9402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>41144</v>
       </c>
@@ -4234,7 +9416,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>41144</v>
       </c>
@@ -4248,7 +9430,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>41144</v>
       </c>
@@ -4262,7 +9444,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>41144</v>
       </c>
@@ -4276,7 +9458,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>41144</v>
       </c>
@@ -4290,7 +9472,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>41144</v>
       </c>
@@ -4304,7 +9486,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>41144</v>
       </c>
@@ -4318,7 +9500,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>41144</v>
       </c>
@@ -4332,7 +9514,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>41144</v>
       </c>
@@ -4346,7 +9528,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>41144</v>
       </c>
@@ -4360,7 +9542,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>41144</v>
       </c>
@@ -4374,7 +9556,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>41144</v>
       </c>
@@ -4388,7 +9570,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>41145</v>
       </c>
@@ -4402,7 +9584,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>41145</v>
       </c>
@@ -4416,7 +9598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>41145</v>
       </c>
@@ -4430,7 +9612,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>41145</v>
       </c>
@@ -4444,7 +9626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>41145</v>
       </c>
@@ -4458,7 +9640,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>41145</v>
       </c>
@@ -4472,7 +9654,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>41145</v>
       </c>
@@ -4486,7 +9668,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>41145</v>
       </c>
@@ -4500,7 +9682,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>41145</v>
       </c>
@@ -4514,7 +9696,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>41145</v>
       </c>
@@ -4528,7 +9710,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>41145</v>
       </c>
@@ -4542,7 +9724,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>41145</v>
       </c>
@@ -4556,7 +9738,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>41145</v>
       </c>
@@ -4570,7 +9752,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>41145</v>
       </c>
@@ -4584,7 +9766,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>41148</v>
       </c>
@@ -4598,7 +9780,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>41148</v>
       </c>
@@ -4612,7 +9794,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>41148</v>
       </c>
@@ -4626,7 +9808,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>41148</v>
       </c>
@@ -4640,7 +9822,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>41148</v>
       </c>
@@ -4654,7 +9836,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>41148</v>
       </c>
@@ -4668,7 +9850,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>41148</v>
       </c>
@@ -4682,7 +9864,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>41148</v>
       </c>
@@ -4696,7 +9878,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>41148</v>
       </c>
@@ -4710,7 +9892,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>41148</v>
       </c>
@@ -4724,7 +9906,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>41148</v>
       </c>
@@ -4738,7 +9920,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>41148</v>
       </c>
@@ -4752,7 +9934,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>41148</v>
       </c>
@@ -4766,7 +9948,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>41148</v>
       </c>
@@ -4780,7 +9962,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>41148</v>
       </c>
@@ -4794,7 +9976,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>41148</v>
       </c>
